--- a/exemplo.xlsx
+++ b/exemplo.xlsx
@@ -11,12 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Nome</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>nome</t>
   </si>
   <si>
     <t>Funcao</t>
@@ -38,6 +35,12 @@
   </si>
   <si>
     <t>Antonio Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andre Machado </t>
+  </si>
+  <si>
+    <t>Gestor</t>
   </si>
 </sst>
 </file>
@@ -71,15 +74,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,7 +297,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.5"/>
+    <col customWidth="1" min="1" max="1" width="15.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -307,52 +307,45 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
